--- a/data/pca/factorExposure/factorExposure_2009-01-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01680226413968774</v>
+        <v>-0.015637874749117</v>
       </c>
       <c r="C2">
-        <v>0.007101808620089418</v>
+        <v>0.009663647959732789</v>
       </c>
       <c r="D2">
-        <v>0.01681579024032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01408399072445557</v>
+      </c>
+      <c r="E2">
+        <v>-0.00288235249175668</v>
+      </c>
+      <c r="F2">
+        <v>0.01226825037380993</v>
+      </c>
+      <c r="G2">
+        <v>0.01619401858109537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08209053744003056</v>
+        <v>-0.08409382210949261</v>
       </c>
       <c r="C4">
-        <v>0.08411400864606008</v>
+        <v>0.08880408529280098</v>
       </c>
       <c r="D4">
-        <v>-0.05989530071750524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05787214223295651</v>
+      </c>
+      <c r="E4">
+        <v>0.02968978109814659</v>
+      </c>
+      <c r="F4">
+        <v>0.03298539311376559</v>
+      </c>
+      <c r="G4">
+        <v>0.02943709299050717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003302211150166341</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001838284291709303</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.002588389201711358</v>
+      </c>
+      <c r="E5">
+        <v>-0.00242837937866159</v>
+      </c>
+      <c r="F5">
+        <v>-0.003255326692696104</v>
+      </c>
+      <c r="G5">
+        <v>-0.00158208561298719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1685265286448587</v>
+        <v>-0.1702832668622465</v>
       </c>
       <c r="C6">
-        <v>-0.0196350091384481</v>
+        <v>-0.01076980068818889</v>
       </c>
       <c r="D6">
-        <v>-0.05198729138045198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05113521684245115</v>
+      </c>
+      <c r="E6">
+        <v>0.03388698485023472</v>
+      </c>
+      <c r="F6">
+        <v>-0.06322544347305897</v>
+      </c>
+      <c r="G6">
+        <v>0.003209601197971714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05505121171035494</v>
+        <v>-0.05892573487943041</v>
       </c>
       <c r="C7">
-        <v>0.05990565550620945</v>
+        <v>0.06395999344934952</v>
       </c>
       <c r="D7">
-        <v>-0.03827574909962179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04114218341464703</v>
+      </c>
+      <c r="E7">
+        <v>0.06400051582633211</v>
+      </c>
+      <c r="F7">
+        <v>0.06172337562631726</v>
+      </c>
+      <c r="G7">
+        <v>0.0411319389288787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05507073376841932</v>
+        <v>-0.05142204213747752</v>
       </c>
       <c r="C8">
-        <v>0.05055436150363377</v>
+        <v>0.05141965718391788</v>
       </c>
       <c r="D8">
-        <v>0.01157050102006845</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.01308911080985809</v>
+      </c>
+      <c r="E8">
+        <v>-0.009593899593626588</v>
+      </c>
+      <c r="F8">
+        <v>0.04127501737469431</v>
+      </c>
+      <c r="G8">
+        <v>-0.0004295712013067689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06073623613890443</v>
+        <v>-0.06407162598385811</v>
       </c>
       <c r="C9">
-        <v>0.0894657224170224</v>
+        <v>0.09270423481830982</v>
       </c>
       <c r="D9">
-        <v>-0.08741679708572629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08247800838351062</v>
+      </c>
+      <c r="E9">
+        <v>0.04088053817531177</v>
+      </c>
+      <c r="F9">
+        <v>0.05673555113286428</v>
+      </c>
+      <c r="G9">
+        <v>0.003525916564509297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1095187127873238</v>
+        <v>-0.1018259538810359</v>
       </c>
       <c r="C10">
-        <v>-0.142039908002644</v>
+        <v>-0.1335875340007552</v>
       </c>
       <c r="D10">
-        <v>0.1079741199907506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.09618935971949688</v>
+      </c>
+      <c r="E10">
+        <v>-0.03453885830058937</v>
+      </c>
+      <c r="F10">
+        <v>0.04815874599198847</v>
+      </c>
+      <c r="G10">
+        <v>-0.02628583874491391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0790523705988485</v>
+        <v>-0.07681956711538381</v>
       </c>
       <c r="C11">
-        <v>0.1243921874268673</v>
+        <v>0.1255096250286437</v>
       </c>
       <c r="D11">
-        <v>-0.06230286967896624</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05406507700497334</v>
+      </c>
+      <c r="E11">
+        <v>0.004026771885597922</v>
+      </c>
+      <c r="F11">
+        <v>0.07924936965104895</v>
+      </c>
+      <c r="G11">
+        <v>-0.003163452134586174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08232381089324575</v>
+        <v>-0.07791442143811887</v>
       </c>
       <c r="C12">
-        <v>0.1492298146358306</v>
+        <v>0.1498771895758851</v>
       </c>
       <c r="D12">
-        <v>-0.06736858679911001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.06075446845186624</v>
+      </c>
+      <c r="E12">
+        <v>0.009213082510709861</v>
+      </c>
+      <c r="F12">
+        <v>0.08310306626306237</v>
+      </c>
+      <c r="G12">
+        <v>0.002322734934127815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04311336858907504</v>
+        <v>-0.04351989298937422</v>
       </c>
       <c r="C13">
-        <v>0.06869071038500814</v>
+        <v>0.07495005599572029</v>
       </c>
       <c r="D13">
-        <v>-0.027069553922333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02707719331545271</v>
+      </c>
+      <c r="E13">
+        <v>0.02449639206034763</v>
+      </c>
+      <c r="F13">
+        <v>0.07481843309076214</v>
+      </c>
+      <c r="G13">
+        <v>0.006190740119005523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02005330962059653</v>
+        <v>-0.02297095046845023</v>
       </c>
       <c r="C14">
-        <v>0.04411437681947278</v>
+        <v>0.04440240260199384</v>
       </c>
       <c r="D14">
-        <v>-0.05153417836854315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04936740233826255</v>
+      </c>
+      <c r="E14">
+        <v>0.00491792991463418</v>
+      </c>
+      <c r="F14">
+        <v>0.08045181672983913</v>
+      </c>
+      <c r="G14">
+        <v>-0.0120826429551195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03170874040537622</v>
+        <v>-0.0338039629740161</v>
       </c>
       <c r="C15">
-        <v>0.05651463310295339</v>
+        <v>0.05636878645378589</v>
       </c>
       <c r="D15">
-        <v>-0.04435356378451169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03863514909092067</v>
+      </c>
+      <c r="E15">
+        <v>0.02884000297908341</v>
+      </c>
+      <c r="F15">
+        <v>0.0279631675852155</v>
+      </c>
+      <c r="G15">
+        <v>-0.0107960024948218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05728741479765441</v>
+        <v>-0.05719766750127639</v>
       </c>
       <c r="C16">
-        <v>0.1447859983588951</v>
+        <v>0.1453408242494204</v>
       </c>
       <c r="D16">
-        <v>-0.07621035933048137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0695090134138541</v>
+      </c>
+      <c r="E16">
+        <v>-0.01336448051887391</v>
+      </c>
+      <c r="F16">
+        <v>0.07801623064988197</v>
+      </c>
+      <c r="G16">
+        <v>0.00099009362340901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.005580438558276737</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004462956493102735</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002890734563403663</v>
+      </c>
+      <c r="E17">
+        <v>-0.008348399548581967</v>
+      </c>
+      <c r="F17">
+        <v>-0.006801869756974651</v>
+      </c>
+      <c r="G17">
+        <v>-0.0141927258669374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03676519858886454</v>
+        <v>-0.05196032372653198</v>
       </c>
       <c r="C18">
-        <v>0.04909218368504646</v>
+        <v>0.04270797994978888</v>
       </c>
       <c r="D18">
-        <v>-0.001329188087710164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.006106129291514583</v>
+      </c>
+      <c r="E18">
+        <v>-0.00435674889589022</v>
+      </c>
+      <c r="F18">
+        <v>-0.0573697306848009</v>
+      </c>
+      <c r="G18">
+        <v>-0.003028489557275425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05708244227369851</v>
+        <v>-0.0568927413714421</v>
       </c>
       <c r="C20">
-        <v>0.09327706250919651</v>
+        <v>0.09245436063400082</v>
       </c>
       <c r="D20">
-        <v>-0.08689560428645224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08107423491942921</v>
+      </c>
+      <c r="E20">
+        <v>0.0142390900641303</v>
+      </c>
+      <c r="F20">
+        <v>0.07407231314125957</v>
+      </c>
+      <c r="G20">
+        <v>-0.007258294429500479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04416933417595866</v>
+        <v>-0.04548713056514309</v>
       </c>
       <c r="C21">
-        <v>0.06056498149378314</v>
+        <v>0.05824659150545602</v>
       </c>
       <c r="D21">
-        <v>-0.0100439158308209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.007726090975184077</v>
+      </c>
+      <c r="E21">
+        <v>0.01701293682888304</v>
+      </c>
+      <c r="F21">
+        <v>0.06983374259881379</v>
+      </c>
+      <c r="G21">
+        <v>0.01862669836708505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04559299475416538</v>
+        <v>-0.04480732892469737</v>
       </c>
       <c r="C22">
-        <v>0.02358554153679024</v>
+        <v>0.0288172272395829</v>
       </c>
       <c r="D22">
-        <v>-0.001554868077348016</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.004391529419653563</v>
+      </c>
+      <c r="E22">
+        <v>-0.1532398309749744</v>
+      </c>
+      <c r="F22">
+        <v>-0.01889907288340842</v>
+      </c>
+      <c r="G22">
+        <v>-0.002245722668992259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04560246562517655</v>
+        <v>-0.0448154033642533</v>
       </c>
       <c r="C23">
-        <v>0.02357818688376717</v>
+        <v>0.0288109840017656</v>
       </c>
       <c r="D23">
-        <v>-0.001537859343204385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.004374971502459435</v>
+      </c>
+      <c r="E23">
+        <v>-0.1532823315956276</v>
+      </c>
+      <c r="F23">
+        <v>-0.01888996277358762</v>
+      </c>
+      <c r="G23">
+        <v>-0.002286818565135163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06661728693934937</v>
+        <v>-0.06582486706162977</v>
       </c>
       <c r="C24">
-        <v>0.1343989259409832</v>
+        <v>0.1335486177498628</v>
       </c>
       <c r="D24">
-        <v>-0.06875724895588423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06227658630253687</v>
+      </c>
+      <c r="E24">
+        <v>0.009458754749836982</v>
+      </c>
+      <c r="F24">
+        <v>0.07481343393572215</v>
+      </c>
+      <c r="G24">
+        <v>0.004990255431332222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0718778404713574</v>
+        <v>-0.07029040337509426</v>
       </c>
       <c r="C25">
-        <v>0.1175942133466973</v>
+        <v>0.1174463831022796</v>
       </c>
       <c r="D25">
-        <v>-0.04089227168524678</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03245649670061742</v>
+      </c>
+      <c r="E25">
+        <v>0.02763752295005491</v>
+      </c>
+      <c r="F25">
+        <v>0.09172702297552973</v>
+      </c>
+      <c r="G25">
+        <v>0.006152356947051258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05669091188000433</v>
+        <v>-0.0606963349228891</v>
       </c>
       <c r="C26">
-        <v>0.06886543565093431</v>
+        <v>0.06956242866800967</v>
       </c>
       <c r="D26">
-        <v>-0.03444341303113393</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02878074680492667</v>
+      </c>
+      <c r="E26">
+        <v>0.001013345450766745</v>
+      </c>
+      <c r="F26">
+        <v>0.08201767010924395</v>
+      </c>
+      <c r="G26">
+        <v>-0.009752291962147846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1705650967169692</v>
+        <v>-0.1735314029976133</v>
       </c>
       <c r="C28">
-        <v>-0.2279414997876859</v>
+        <v>-0.2278543832288041</v>
       </c>
       <c r="D28">
-        <v>0.03122540051643488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.04221126830584369</v>
+      </c>
+      <c r="E28">
+        <v>0.05725586758322757</v>
+      </c>
+      <c r="F28">
+        <v>0.1389623942068074</v>
+      </c>
+      <c r="G28">
+        <v>-0.01608458970223786</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02364664499121465</v>
+        <v>-0.02635117495725008</v>
       </c>
       <c r="C29">
-        <v>0.04870237302822047</v>
+        <v>0.04651073695854883</v>
       </c>
       <c r="D29">
-        <v>-0.01971329719086631</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01944852847132482</v>
+      </c>
+      <c r="E29">
+        <v>-0.01548826843534793</v>
+      </c>
+      <c r="F29">
+        <v>0.07550932962965563</v>
+      </c>
+      <c r="G29">
+        <v>-0.007655740642014085</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03927078340080813</v>
+        <v>-0.04097983279184882</v>
       </c>
       <c r="C30">
-        <v>0.07044876559598688</v>
+        <v>0.07701133499639856</v>
       </c>
       <c r="D30">
-        <v>-0.1115669848065157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08931758385997832</v>
+      </c>
+      <c r="E30">
+        <v>0.1091733518925393</v>
+      </c>
+      <c r="F30">
+        <v>0.06451095365170675</v>
+      </c>
+      <c r="G30">
+        <v>-0.01873131494276207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05236826068711255</v>
+        <v>-0.05166681103812173</v>
       </c>
       <c r="C31">
-        <v>0.03255936498115698</v>
+        <v>0.0352283589899776</v>
       </c>
       <c r="D31">
-        <v>-0.02095390869462602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02521673224298826</v>
+      </c>
+      <c r="E31">
+        <v>-0.0295220539152757</v>
+      </c>
+      <c r="F31">
+        <v>0.02056236761081185</v>
+      </c>
+      <c r="G31">
+        <v>0.02101385867675983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04466882047996498</v>
+        <v>-0.0488772019102077</v>
       </c>
       <c r="C32">
-        <v>0.04998483658734017</v>
+        <v>0.0474140479811709</v>
       </c>
       <c r="D32">
-        <v>-0.0270031986078488</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.02926796888547434</v>
+      </c>
+      <c r="E32">
+        <v>-0.01277097043994739</v>
+      </c>
+      <c r="F32">
+        <v>0.008546274098213761</v>
+      </c>
+      <c r="G32">
+        <v>-0.006481079362511602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07916698550674557</v>
+        <v>-0.08215090925107231</v>
       </c>
       <c r="C33">
-        <v>0.1105924442893315</v>
+        <v>0.1188532774894692</v>
       </c>
       <c r="D33">
-        <v>-0.07370608648910697</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07218618640185553</v>
+      </c>
+      <c r="E33">
+        <v>0.01174472433776494</v>
+      </c>
+      <c r="F33">
+        <v>0.07584812036775486</v>
+      </c>
+      <c r="G33">
+        <v>-0.001529375017695692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05510929551446141</v>
+        <v>-0.05483069711808115</v>
       </c>
       <c r="C34">
-        <v>0.1193787800407208</v>
+        <v>0.121217788488692</v>
       </c>
       <c r="D34">
-        <v>-0.07876311021161481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06252382197936834</v>
+      </c>
+      <c r="E34">
+        <v>0.0428401279577939</v>
+      </c>
+      <c r="F34">
+        <v>0.0850744105465488</v>
+      </c>
+      <c r="G34">
+        <v>-0.02513406275966126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02699406868952417</v>
+        <v>-0.02965806906040729</v>
       </c>
       <c r="C35">
-        <v>0.0175019089778554</v>
+        <v>0.01978013542249229</v>
       </c>
       <c r="D35">
-        <v>-0.02974325108878054</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02740406465864742</v>
+      </c>
+      <c r="E35">
+        <v>-0.01028106029738884</v>
+      </c>
+      <c r="F35">
+        <v>0.03314828244300119</v>
+      </c>
+      <c r="G35">
+        <v>-0.03166137061113602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0232267496452768</v>
+        <v>-0.0273978190344454</v>
       </c>
       <c r="C36">
-        <v>0.04952419810221002</v>
+        <v>0.04860346995357004</v>
       </c>
       <c r="D36">
-        <v>-0.07046178529941358</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.06213668471954771</v>
+      </c>
+      <c r="E36">
+        <v>0.006789215546846675</v>
+      </c>
+      <c r="F36">
+        <v>0.02586281744341783</v>
+      </c>
+      <c r="G36">
+        <v>-0.08194902154459185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-6.037825700408361e-05</v>
+        <v>-0.003422290819723874</v>
       </c>
       <c r="C37">
-        <v>-0.0002153188109116506</v>
+        <v>0.006996949051944455</v>
       </c>
       <c r="D37">
-        <v>-0.0002786924963570745</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.001563454646059948</v>
+      </c>
+      <c r="E37">
+        <v>0.0005636204074896288</v>
+      </c>
+      <c r="F37">
+        <v>0.01070756843694621</v>
+      </c>
+      <c r="G37">
+        <v>0.005748109199407816</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08330428591694003</v>
+        <v>-0.07751140738872037</v>
       </c>
       <c r="C39">
-        <v>0.1509732286170732</v>
+        <v>0.1466796542482317</v>
       </c>
       <c r="D39">
-        <v>-0.04361008092699465</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.03844744218261562</v>
+      </c>
+      <c r="E39">
+        <v>-0.008196872147912945</v>
+      </c>
+      <c r="F39">
+        <v>0.1309087988117052</v>
+      </c>
+      <c r="G39">
+        <v>0.03208647256235991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04628320181996821</v>
+        <v>-0.05065841004478489</v>
       </c>
       <c r="C40">
-        <v>0.06961804533281943</v>
+        <v>0.07429566621227963</v>
       </c>
       <c r="D40">
-        <v>-0.02482958224793331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01583258377038968</v>
+      </c>
+      <c r="E40">
+        <v>0.002559861401987973</v>
+      </c>
+      <c r="F40">
+        <v>0.04857438783375463</v>
+      </c>
+      <c r="G40">
+        <v>-0.04417576672000893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02670252680651362</v>
+        <v>-0.02833119870571342</v>
       </c>
       <c r="C41">
-        <v>0.02106600247036301</v>
+        <v>0.02225125431048956</v>
       </c>
       <c r="D41">
-        <v>0.00555528669549272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004685955897070956</v>
+      </c>
+      <c r="E41">
+        <v>-0.01036318740522623</v>
+      </c>
+      <c r="F41">
+        <v>-0.01114310219199946</v>
+      </c>
+      <c r="G41">
+        <v>-0.01212101073888686</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04274758176488647</v>
+        <v>-0.04203886772902137</v>
       </c>
       <c r="C43">
-        <v>0.04038821482434604</v>
+        <v>0.03718159650227141</v>
       </c>
       <c r="D43">
-        <v>-0.009031257142712064</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.008987012698955552</v>
+      </c>
+      <c r="E43">
+        <v>-0.03172990324897278</v>
+      </c>
+      <c r="F43">
+        <v>0.02591255967647337</v>
+      </c>
+      <c r="G43">
+        <v>-0.002623168892077362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05622080513045761</v>
+        <v>-0.06349414987433574</v>
       </c>
       <c r="C44">
-        <v>0.08325200486238317</v>
+        <v>0.0862919268919287</v>
       </c>
       <c r="D44">
-        <v>-0.2787473829516788</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.246407672028241</v>
+      </c>
+      <c r="E44">
+        <v>0.1455692893683434</v>
+      </c>
+      <c r="F44">
+        <v>0.1269617273643519</v>
+      </c>
+      <c r="G44">
+        <v>-0.1657243531261692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.000227130976080977</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1.287709796714238e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.001263458970180735</v>
+      </c>
+      <c r="E45">
+        <v>0.001380620344078256</v>
+      </c>
+      <c r="F45">
+        <v>0.001009838410777172</v>
+      </c>
+      <c r="G45">
+        <v>0.005063032564757803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02816809963443207</v>
+        <v>-0.02789747982010701</v>
       </c>
       <c r="C46">
-        <v>0.03215248896269407</v>
+        <v>0.03271855117078071</v>
       </c>
       <c r="D46">
-        <v>-0.0196751830098557</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02457761617909296</v>
+      </c>
+      <c r="E46">
+        <v>-0.03540672079060046</v>
+      </c>
+      <c r="F46">
+        <v>0.07432073565994866</v>
+      </c>
+      <c r="G46">
+        <v>0.02131960588446073</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0517523150559295</v>
+        <v>-0.05110694820949751</v>
       </c>
       <c r="C47">
-        <v>0.02341262796916558</v>
+        <v>0.02687288018887234</v>
       </c>
       <c r="D47">
-        <v>0.009346464888364284</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.003211587843383485</v>
+      </c>
+      <c r="E47">
+        <v>-0.06437478213239418</v>
+      </c>
+      <c r="F47">
+        <v>-0.005180927714065253</v>
+      </c>
+      <c r="G47">
+        <v>0.03033871396515527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04695726919798587</v>
+        <v>-0.05014536735383224</v>
       </c>
       <c r="C48">
-        <v>0.07002198668522347</v>
+        <v>0.06943012850491868</v>
       </c>
       <c r="D48">
-        <v>-0.02304980761342296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01923390145609198</v>
+      </c>
+      <c r="E48">
+        <v>0.02835749673719299</v>
+      </c>
+      <c r="F48">
+        <v>0.05309460327512128</v>
+      </c>
+      <c r="G48">
+        <v>0.02216144003780823</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1941439223252091</v>
+        <v>-0.1977381487476694</v>
       </c>
       <c r="C49">
-        <v>-0.01264716230594877</v>
+        <v>-0.007145267586795121</v>
       </c>
       <c r="D49">
-        <v>-0.02202599604689751</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02667917569980752</v>
+      </c>
+      <c r="E49">
+        <v>0.04036174034268878</v>
+      </c>
+      <c r="F49">
+        <v>-0.057256384776128</v>
+      </c>
+      <c r="G49">
+        <v>0.006462783520776676</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05061265949513793</v>
+        <v>-0.05206537553396184</v>
       </c>
       <c r="C50">
-        <v>0.0310613865205337</v>
+        <v>0.03332036553214702</v>
       </c>
       <c r="D50">
-        <v>-0.0280510150039061</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03212092991257633</v>
+      </c>
+      <c r="E50">
+        <v>-0.01598516023820617</v>
+      </c>
+      <c r="F50">
+        <v>0.00994529876075401</v>
+      </c>
+      <c r="G50">
+        <v>0.02314915826811074</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1438230605639712</v>
+        <v>-0.1373658457655239</v>
       </c>
       <c r="C52">
-        <v>0.03248136822999101</v>
+        <v>0.03439741966083323</v>
       </c>
       <c r="D52">
-        <v>-0.05579173375925203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.06004099995932364</v>
+      </c>
+      <c r="E52">
+        <v>-0.01447464781404124</v>
+      </c>
+      <c r="F52">
+        <v>-0.07340233635647589</v>
+      </c>
+      <c r="G52">
+        <v>0.03940035370555166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.173591354638091</v>
+        <v>-0.164837239478945</v>
       </c>
       <c r="C53">
-        <v>-0.003213451057457634</v>
+        <v>0.001410718964790538</v>
       </c>
       <c r="D53">
-        <v>-0.09513944760217984</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.1041003986722715</v>
+      </c>
+      <c r="E53">
+        <v>0.001932532432129795</v>
+      </c>
+      <c r="F53">
+        <v>-0.1192287442511091</v>
+      </c>
+      <c r="G53">
+        <v>0.0788538349719321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0109181641753895</v>
+        <v>-0.01435652635101404</v>
       </c>
       <c r="C54">
-        <v>0.03358870998719331</v>
+        <v>0.03411648487209482</v>
       </c>
       <c r="D54">
-        <v>-0.01923197587922485</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02101166581876688</v>
+      </c>
+      <c r="E54">
+        <v>-0.01094628702240929</v>
+      </c>
+      <c r="F54">
+        <v>0.04728821588147455</v>
+      </c>
+      <c r="G54">
+        <v>-0.000716491241189191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1215535908377124</v>
+        <v>-0.11803773264492</v>
       </c>
       <c r="C55">
-        <v>0.006084523599742355</v>
+        <v>0.01217673791255277</v>
       </c>
       <c r="D55">
-        <v>-0.07266634421164342</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.08021619380219139</v>
+      </c>
+      <c r="E55">
+        <v>-0.0304815606887669</v>
+      </c>
+      <c r="F55">
+        <v>-0.03680694794011759</v>
+      </c>
+      <c r="G55">
+        <v>0.07397372148039368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1805199077699632</v>
+        <v>-0.1729342174838437</v>
       </c>
       <c r="C56">
-        <v>-0.009874272206975137</v>
+        <v>-0.007535493649146652</v>
       </c>
       <c r="D56">
-        <v>-0.04744149335518488</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06244523830882849</v>
+      </c>
+      <c r="E56">
+        <v>-0.03900844449142594</v>
+      </c>
+      <c r="F56">
+        <v>-0.1499624459810172</v>
+      </c>
+      <c r="G56">
+        <v>0.08317598538969649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04396368356297379</v>
+        <v>-0.04442039315695506</v>
       </c>
       <c r="C58">
-        <v>0.09716228139552387</v>
+        <v>0.105456001486595</v>
       </c>
       <c r="D58">
-        <v>-0.008842206355721131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.01684255303800213</v>
+      </c>
+      <c r="E58">
+        <v>-0.03191909748332506</v>
+      </c>
+      <c r="F58">
+        <v>0.04752270298636718</v>
+      </c>
+      <c r="G58">
+        <v>0.01732183274296479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1878941562898953</v>
+        <v>-0.1913506520223038</v>
       </c>
       <c r="C59">
-        <v>-0.1767451098569819</v>
+        <v>-0.1790886193700266</v>
       </c>
       <c r="D59">
-        <v>0.07614675062239047</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.07549630521449673</v>
+      </c>
+      <c r="E59">
+        <v>-0.0352832236932245</v>
+      </c>
+      <c r="F59">
+        <v>0.07287465899711297</v>
+      </c>
+      <c r="G59">
+        <v>0.02694824212503454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2136246995333186</v>
+        <v>-0.2085359451907499</v>
       </c>
       <c r="C60">
-        <v>0.003431136382278547</v>
+        <v>0.009494551773305365</v>
       </c>
       <c r="D60">
-        <v>0.06880361784116833</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04713976994493484</v>
+      </c>
+      <c r="E60">
+        <v>-0.04778458717527767</v>
+      </c>
+      <c r="F60">
+        <v>-0.1896571538070194</v>
+      </c>
+      <c r="G60">
+        <v>0.1002116087313245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06473998601712302</v>
+        <v>-0.06192487688813775</v>
       </c>
       <c r="C61">
-        <v>0.1191555845746706</v>
+        <v>0.1182556999639817</v>
       </c>
       <c r="D61">
-        <v>-0.04246725941587317</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03923859585962081</v>
+      </c>
+      <c r="E61">
+        <v>-0.01340737948588009</v>
+      </c>
+      <c r="F61">
+        <v>0.0893793489268437</v>
+      </c>
+      <c r="G61">
+        <v>0.01170325814871903</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1683445029376013</v>
+        <v>-0.1644553327877658</v>
       </c>
       <c r="C62">
-        <v>-0.009626194404361542</v>
+        <v>-0.006527714025107757</v>
       </c>
       <c r="D62">
-        <v>-0.04067382941807097</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.05610680082793276</v>
+      </c>
+      <c r="E62">
+        <v>-0.03455642405048248</v>
+      </c>
+      <c r="F62">
+        <v>-0.1213628250972699</v>
+      </c>
+      <c r="G62">
+        <v>0.07344004563863835</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03843287533913139</v>
+        <v>-0.04300789983573716</v>
       </c>
       <c r="C63">
-        <v>0.0721820871356636</v>
+        <v>0.07413124866700267</v>
       </c>
       <c r="D63">
-        <v>-0.03692758366691606</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.03337232166112458</v>
+      </c>
+      <c r="E63">
+        <v>-0.01455580030536481</v>
+      </c>
+      <c r="F63">
+        <v>0.04963866500996877</v>
+      </c>
+      <c r="G63">
+        <v>-0.03016034151751065</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.11199555334284</v>
+        <v>-0.1097500954987975</v>
       </c>
       <c r="C64">
-        <v>0.04703561772880042</v>
+        <v>0.05068804944909927</v>
       </c>
       <c r="D64">
-        <v>-0.03610306691874926</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03797352613781308</v>
+      </c>
+      <c r="E64">
+        <v>-0.01035416432968852</v>
+      </c>
+      <c r="F64">
+        <v>-0.03501518712497881</v>
+      </c>
+      <c r="G64">
+        <v>0.004465266483474666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1575570595274235</v>
+        <v>-0.1610164615873551</v>
       </c>
       <c r="C65">
-        <v>-0.05936888745168547</v>
+        <v>-0.04954532420794174</v>
       </c>
       <c r="D65">
-        <v>-0.04707143803841732</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05095357285358307</v>
+      </c>
+      <c r="E65">
+        <v>0.02903055335835569</v>
+      </c>
+      <c r="F65">
+        <v>-0.0150979239205998</v>
+      </c>
+      <c r="G65">
+        <v>0.02826954928929817</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1003431940763214</v>
+        <v>-0.09385183151113605</v>
       </c>
       <c r="C66">
-        <v>0.1285291980258103</v>
+        <v>0.1298708865832536</v>
       </c>
       <c r="D66">
-        <v>-0.04540004301636847</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.03654429583461299</v>
+      </c>
+      <c r="E66">
+        <v>0.001298052046031156</v>
+      </c>
+      <c r="F66">
+        <v>0.1027722314827011</v>
+      </c>
+      <c r="G66">
+        <v>-0.01221046568088471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05872730568433096</v>
+        <v>-0.04948564822218901</v>
       </c>
       <c r="C67">
-        <v>0.08667395075681303</v>
+        <v>0.0813539100956589</v>
       </c>
       <c r="D67">
-        <v>0.02934839372556815</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02428047572372874</v>
+      </c>
+      <c r="E67">
+        <v>-0.09528326066042722</v>
+      </c>
+      <c r="F67">
+        <v>-0.03427579810720473</v>
+      </c>
+      <c r="G67">
+        <v>0.0007689252901623577</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1386764104902912</v>
+        <v>-0.1420141167880968</v>
       </c>
       <c r="C68">
-        <v>-0.245921820806617</v>
+        <v>-0.2476547498442514</v>
       </c>
       <c r="D68">
-        <v>0.06547548746468158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.07363578557211434</v>
+      </c>
+      <c r="E68">
+        <v>0.09080736210494854</v>
+      </c>
+      <c r="F68">
+        <v>0.1219231342872178</v>
+      </c>
+      <c r="G68">
+        <v>0.01671025395125979</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03893079112828406</v>
+        <v>-0.03820998730296029</v>
       </c>
       <c r="C69">
-        <v>0.01303899551345829</v>
+        <v>0.01517556743882897</v>
       </c>
       <c r="D69">
-        <v>-0.01909858000425282</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02563056091828329</v>
+      </c>
+      <c r="E69">
+        <v>-0.06040131086671748</v>
+      </c>
+      <c r="F69">
+        <v>-0.04188530322090801</v>
+      </c>
+      <c r="G69">
+        <v>-0.02200870109985147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07056202374224778</v>
+        <v>-0.07173398452632943</v>
       </c>
       <c r="C70">
-        <v>0.08001511735538858</v>
+        <v>0.07863786561660782</v>
       </c>
       <c r="D70">
-        <v>0.4884530494777233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.3667336127064728</v>
+      </c>
+      <c r="E70">
+        <v>-0.3915952369744497</v>
+      </c>
+      <c r="F70">
+        <v>-0.2703467870299894</v>
+      </c>
+      <c r="G70">
+        <v>0.4191784999008525</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1617559239028219</v>
+        <v>-0.1663146044439577</v>
       </c>
       <c r="C71">
-        <v>-0.2539986061941316</v>
+        <v>-0.2523581845558786</v>
       </c>
       <c r="D71">
-        <v>0.07053122405735203</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.08102037538941941</v>
+      </c>
+      <c r="E71">
+        <v>0.09838814991489836</v>
+      </c>
+      <c r="F71">
+        <v>0.1227473688374908</v>
+      </c>
+      <c r="G71">
+        <v>0.01548319750175354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.14346714118981</v>
+        <v>-0.1490065233197893</v>
       </c>
       <c r="C72">
-        <v>0.006137692010966873</v>
+        <v>0.005619940654532339</v>
       </c>
       <c r="D72">
-        <v>-0.07627369253161473</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07493768590188045</v>
+      </c>
+      <c r="E72">
+        <v>-0.02967030956296555</v>
+      </c>
+      <c r="F72">
+        <v>-0.02656015339630431</v>
+      </c>
+      <c r="G72">
+        <v>-0.007862524095646334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1919466458379888</v>
+        <v>-0.1997225673542836</v>
       </c>
       <c r="C73">
-        <v>0.02065548073980298</v>
+        <v>0.02904682227901677</v>
       </c>
       <c r="D73">
-        <v>-0.07316512961068482</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.08284545888852425</v>
+      </c>
+      <c r="E73">
+        <v>-0.04000078883256172</v>
+      </c>
+      <c r="F73">
+        <v>-0.1068959541637606</v>
+      </c>
+      <c r="G73">
+        <v>-0.003620449194324661</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08665075398664927</v>
+        <v>-0.08577280597716305</v>
       </c>
       <c r="C74">
-        <v>0.002270328282397288</v>
+        <v>0.008822171091026457</v>
       </c>
       <c r="D74">
-        <v>-0.0758878616005369</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.08285973992004658</v>
+      </c>
+      <c r="E74">
+        <v>-0.001837812629827105</v>
+      </c>
+      <c r="F74">
+        <v>-0.07253270803697769</v>
+      </c>
+      <c r="G74">
+        <v>0.004405966199375782</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1236218340883384</v>
+        <v>-0.1158479587453412</v>
       </c>
       <c r="C75">
-        <v>0.01810041693005327</v>
+        <v>0.02126327020764959</v>
       </c>
       <c r="D75">
-        <v>-0.06426220662720374</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.06976390159826217</v>
+      </c>
+      <c r="E75">
+        <v>-0.04889409748969532</v>
+      </c>
+      <c r="F75">
+        <v>-0.06124720108994815</v>
+      </c>
+      <c r="G75">
+        <v>0.04775925729532597</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07340946006165319</v>
+        <v>-0.08713214856962964</v>
       </c>
       <c r="C77">
-        <v>0.1119939567523839</v>
+        <v>0.1133217279965228</v>
       </c>
       <c r="D77">
-        <v>-0.06248887770652832</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0702256931637681</v>
+      </c>
+      <c r="E77">
+        <v>0.0355201487831783</v>
+      </c>
+      <c r="F77">
+        <v>0.09542024286507779</v>
+      </c>
+      <c r="G77">
+        <v>0.1089168168990207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08851850899578485</v>
+        <v>-0.09232897980430647</v>
       </c>
       <c r="C78">
-        <v>0.1267120673910998</v>
+        <v>0.1263270327581215</v>
       </c>
       <c r="D78">
-        <v>-0.07630223829010155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06072268214998039</v>
+      </c>
+      <c r="E78">
+        <v>0.03777997730286032</v>
+      </c>
+      <c r="F78">
+        <v>0.1158444961484612</v>
+      </c>
+      <c r="G78">
+        <v>0.08380224241296495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.167194510694677</v>
+        <v>-0.1623917047945173</v>
       </c>
       <c r="C79">
-        <v>0.01660652815533066</v>
+        <v>0.019034306290082</v>
       </c>
       <c r="D79">
-        <v>-0.03365152217580506</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04269755483222136</v>
+      </c>
+      <c r="E79">
+        <v>-0.03385829730838266</v>
+      </c>
+      <c r="F79">
+        <v>-0.05475762997452299</v>
+      </c>
+      <c r="G79">
+        <v>0.04849487437434424</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07546700659027687</v>
+        <v>-0.07327904029287502</v>
       </c>
       <c r="C80">
-        <v>0.07125348309581508</v>
+        <v>0.06695743704855836</v>
       </c>
       <c r="D80">
-        <v>-0.03426516606648271</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01824389714115609</v>
+      </c>
+      <c r="E80">
+        <v>-0.03175362024902514</v>
+      </c>
+      <c r="F80">
+        <v>0.09503179417740289</v>
+      </c>
+      <c r="G80">
+        <v>-0.106355325834279</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1118275093795575</v>
+        <v>-0.1050148873383302</v>
       </c>
       <c r="C81">
-        <v>-0.01550838204830495</v>
+        <v>-0.01253629327023511</v>
       </c>
       <c r="D81">
-        <v>-0.03409094848023726</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.042188638811754</v>
+      </c>
+      <c r="E81">
+        <v>-0.06093651072039472</v>
+      </c>
+      <c r="F81">
+        <v>-0.07011455678869653</v>
+      </c>
+      <c r="G81">
+        <v>0.008648795873342635</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1617130506241361</v>
+        <v>-0.1573131023868355</v>
       </c>
       <c r="C82">
-        <v>-0.01398404176578685</v>
+        <v>-0.01048189769170867</v>
       </c>
       <c r="D82">
-        <v>-0.0854656837678953</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0901946833264053</v>
+      </c>
+      <c r="E82">
+        <v>0.0133428604473805</v>
+      </c>
+      <c r="F82">
+        <v>-0.1308889322797556</v>
+      </c>
+      <c r="G82">
+        <v>0.01404415587587713</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0547015901820874</v>
+        <v>-0.05037450224789962</v>
       </c>
       <c r="C83">
-        <v>0.06382027988120308</v>
+        <v>0.05906623367801488</v>
       </c>
       <c r="D83">
-        <v>0.00609471490874493</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.009005931118243889</v>
+      </c>
+      <c r="E83">
+        <v>-0.008442713697010957</v>
+      </c>
+      <c r="F83">
+        <v>0.00319013260647687</v>
+      </c>
+      <c r="G83">
+        <v>0.01436756515694975</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.0509047794069806</v>
+        <v>-0.04831155755706341</v>
       </c>
       <c r="C84">
-        <v>0.07043586183414355</v>
+        <v>0.06971956168245853</v>
       </c>
       <c r="D84">
-        <v>0.001796955794130808</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001924562648176127</v>
+      </c>
+      <c r="E84">
+        <v>-0.03477371201022578</v>
+      </c>
+      <c r="F84">
+        <v>-0.007068304252426078</v>
+      </c>
+      <c r="G84">
+        <v>0.02480005248902286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1399814221712431</v>
+        <v>-0.1341145356820091</v>
       </c>
       <c r="C85">
-        <v>0.003934523350908336</v>
+        <v>0.007662060600411219</v>
       </c>
       <c r="D85">
-        <v>-0.09277331901699681</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09402057081128197</v>
+      </c>
+      <c r="E85">
+        <v>-0.0008806624679594902</v>
+      </c>
+      <c r="F85">
+        <v>-0.05108325507367955</v>
+      </c>
+      <c r="G85">
+        <v>0.03648591160411158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08372907730651456</v>
+        <v>-0.08115673278397319</v>
       </c>
       <c r="C86">
-        <v>0.1344691063106858</v>
+        <v>0.1355085999076245</v>
       </c>
       <c r="D86">
-        <v>0.3568950163343594</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.3745649233420673</v>
+      </c>
+      <c r="E86">
+        <v>-0.5265786806022195</v>
+      </c>
+      <c r="F86">
+        <v>0.5188341019755384</v>
+      </c>
+      <c r="G86">
+        <v>-0.1592992318887257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.09115686392026617</v>
+        <v>-0.08783129901133262</v>
       </c>
       <c r="C87">
-        <v>0.09872358046395564</v>
+        <v>0.09722320140337916</v>
       </c>
       <c r="D87">
-        <v>-0.04951689566794278</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.02471614061540418</v>
+      </c>
+      <c r="E87">
+        <v>0.1439076537392312</v>
+      </c>
+      <c r="F87">
+        <v>0.07278788629954913</v>
+      </c>
+      <c r="G87">
+        <v>-0.0464294373258797</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06103891447881209</v>
+        <v>-0.06015834696405352</v>
       </c>
       <c r="C88">
-        <v>0.05871761152222889</v>
+        <v>0.05979895956122391</v>
       </c>
       <c r="D88">
-        <v>-0.01563468103866396</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01873416168731864</v>
+      </c>
+      <c r="E88">
+        <v>-0.013595774334347</v>
+      </c>
+      <c r="F88">
+        <v>-0.02626614809206487</v>
+      </c>
+      <c r="G88">
+        <v>0.0139868837535626</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1478997599593598</v>
+        <v>-0.1509608657168734</v>
       </c>
       <c r="C89">
-        <v>-0.1973767254663298</v>
+        <v>-0.2056439143268653</v>
       </c>
       <c r="D89">
-        <v>0.04053601817502872</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.05332121323290249</v>
+      </c>
+      <c r="E89">
+        <v>0.08273430092671355</v>
+      </c>
+      <c r="F89">
+        <v>0.09225812497852527</v>
+      </c>
+      <c r="G89">
+        <v>-0.009364374515828396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1761711207607921</v>
+        <v>-0.1834096430027644</v>
       </c>
       <c r="C90">
-        <v>-0.230082224560244</v>
+        <v>-0.2368014343045922</v>
       </c>
       <c r="D90">
-        <v>0.08672802255410349</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.1041805062059051</v>
+      </c>
+      <c r="E90">
+        <v>0.1226281427666904</v>
+      </c>
+      <c r="F90">
+        <v>0.1372892851985184</v>
+      </c>
+      <c r="G90">
+        <v>-0.0004280928895436962</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1265794965463697</v>
+        <v>-0.1209051897826112</v>
       </c>
       <c r="C91">
-        <v>-0.02310241571698378</v>
+        <v>-0.02014565093344104</v>
       </c>
       <c r="D91">
-        <v>-0.0375167310665508</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.04584830032502366</v>
+      </c>
+      <c r="E91">
+        <v>-0.1059563997108019</v>
+      </c>
+      <c r="F91">
+        <v>-0.09513594580192565</v>
+      </c>
+      <c r="G91">
+        <v>-0.004466393224525717</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1703743799770697</v>
+        <v>-0.173769550399568</v>
       </c>
       <c r="C92">
-        <v>-0.2636052679166651</v>
+        <v>-0.2760441922672717</v>
       </c>
       <c r="D92">
-        <v>0.07703964347019247</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.08345044960701251</v>
+      </c>
+      <c r="E92">
+        <v>0.07732555434050384</v>
+      </c>
+      <c r="F92">
+        <v>0.1889120695180173</v>
+      </c>
+      <c r="G92">
+        <v>0.03898447909756526</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1764918124036769</v>
+        <v>-0.1847319266291098</v>
       </c>
       <c r="C93">
-        <v>-0.2219164828663338</v>
+        <v>-0.2265880277655685</v>
       </c>
       <c r="D93">
-        <v>0.04999906453042122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.05379100386122222</v>
+      </c>
+      <c r="E93">
+        <v>0.05706850014280844</v>
+      </c>
+      <c r="F93">
+        <v>0.09964194627610168</v>
+      </c>
+      <c r="G93">
+        <v>0.05683815684119801</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1185273102779076</v>
+        <v>-0.1128665675816646</v>
       </c>
       <c r="C94">
-        <v>0.03399436839607207</v>
+        <v>0.03433230121792023</v>
       </c>
       <c r="D94">
-        <v>-0.05735277100580668</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.06125961455315714</v>
+      </c>
+      <c r="E94">
+        <v>-0.04685427911452986</v>
+      </c>
+      <c r="F94">
+        <v>-0.05931543357229991</v>
+      </c>
+      <c r="G94">
+        <v>0.04213568515224674</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1188486684297689</v>
+        <v>-0.1216985390622961</v>
       </c>
       <c r="C95">
-        <v>0.1005471805707888</v>
+        <v>0.1113501629492332</v>
       </c>
       <c r="D95">
-        <v>-0.01840468717127743</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.02665903910567756</v>
+      </c>
+      <c r="E95">
+        <v>-0.03308635374414325</v>
+      </c>
+      <c r="F95">
+        <v>0.07434004323039625</v>
+      </c>
+      <c r="G95">
+        <v>0.001306196550744678</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1139689698635631</v>
+        <v>-0.1121623281395757</v>
       </c>
       <c r="C96">
-        <v>0.1135828688145641</v>
+        <v>0.1182855001330997</v>
       </c>
       <c r="D96">
-        <v>0.01598830369957645</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.004110788240952488</v>
+      </c>
+      <c r="E96">
+        <v>-0.01810086375538542</v>
+      </c>
+      <c r="F96">
+        <v>-0.07770905981059262</v>
+      </c>
+      <c r="G96">
+        <v>0.1028269206980254</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1918568340626771</v>
+        <v>-0.19594918195155</v>
       </c>
       <c r="C97">
-        <v>0.002480498882547294</v>
+        <v>-0.002058119633833711</v>
       </c>
       <c r="D97">
-        <v>0.08944832758182075</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.1226267518302984</v>
+      </c>
+      <c r="E97">
+        <v>-0.1471907133103876</v>
+      </c>
+      <c r="F97">
+        <v>-0.3366079605992983</v>
+      </c>
+      <c r="G97">
+        <v>-0.8088288746339143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2022526202065255</v>
+        <v>-0.2067225673510852</v>
       </c>
       <c r="C98">
-        <v>0.01905207704922989</v>
+        <v>0.02333123345895086</v>
       </c>
       <c r="D98">
-        <v>0.1086075126823912</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.09788001188728623</v>
+      </c>
+      <c r="E98">
+        <v>0.006486972895521837</v>
+      </c>
+      <c r="F98">
+        <v>-0.09387178810402994</v>
+      </c>
+      <c r="G98">
+        <v>0.02500394150121917</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05386445087815332</v>
+        <v>-0.05330872916472374</v>
       </c>
       <c r="C99">
-        <v>0.05430388878439318</v>
+        <v>0.05533362239212446</v>
       </c>
       <c r="D99">
-        <v>-0.008835827445790381</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.007131768586628027</v>
+      </c>
+      <c r="E99">
+        <v>-0.002307821844569731</v>
+      </c>
+      <c r="F99">
+        <v>0.03238114587056896</v>
+      </c>
+      <c r="G99">
+        <v>-0.01434466640022754</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1145756919777818</v>
+        <v>-0.1069444686142877</v>
       </c>
       <c r="C100">
-        <v>0.4004899605420351</v>
+        <v>0.3707098122031238</v>
       </c>
       <c r="D100">
-        <v>0.5560480922928844</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.6435793373356488</v>
+      </c>
+      <c r="E100">
+        <v>0.5627969686116918</v>
+      </c>
+      <c r="F100">
+        <v>-0.1022763131875806</v>
+      </c>
+      <c r="G100">
+        <v>-0.008410085522051696</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02358240496665003</v>
+        <v>-0.02629521890142152</v>
       </c>
       <c r="C101">
-        <v>0.04819999663932643</v>
+        <v>0.04598692810851803</v>
       </c>
       <c r="D101">
-        <v>-0.01556497195044449</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01651854031972584</v>
+      </c>
+      <c r="E101">
+        <v>-0.01834479290468965</v>
+      </c>
+      <c r="F101">
+        <v>0.07087851152926893</v>
+      </c>
+      <c r="G101">
+        <v>-0.004244529129605125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
